--- a/美工/美工.xlsx
+++ b/美工/美工.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLACSTAR\Documents\GitHub\MonsterTrainer\美工\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9630" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23715" windowHeight="9630" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="金" sheetId="1" r:id="rId1"/>
@@ -12,13 +17,14 @@
     <sheet name="水" sheetId="3" r:id="rId3"/>
     <sheet name="火" sheetId="4" r:id="rId4"/>
     <sheet name="土" sheetId="5" r:id="rId5"/>
+    <sheet name="怪物模型" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="147">
   <si>
     <t>金刚之躯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,12 +562,51 @@
   <si>
     <t>手持石头制重锤</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物属性</t>
+  </si>
+  <si>
+    <t>模型一</t>
+  </si>
+  <si>
+    <t>模型二</t>
+  </si>
+  <si>
+    <t>模型三</t>
+  </si>
+  <si>
+    <t>模型一描述</t>
+  </si>
+  <si>
+    <t>模型二描述</t>
+  </si>
+  <si>
+    <t>模型三描述</t>
+  </si>
+  <si>
+    <t>图片尺寸大小</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>土</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -677,13 +722,21 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30"/>
+    <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -730,7 +783,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -762,9 +815,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -796,6 +850,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -971,11 +1026,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1143,7 +1198,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="67.5">
+    <row r="11" spans="1:12" ht="54">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1310,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -1537,7 +1592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="67.5">
+    <row r="32" spans="1:5" ht="54">
       <c r="A32" s="3" t="s">
         <v>70</v>
       </c>
@@ -1579,7 +1634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -1833,11 +1888,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2072,10 +2127,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2180,7 +2235,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="94.5">
+    <row r="18" spans="1:4" ht="81">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2305,4 +2360,77 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>